--- a/语法/活用.xlsx
+++ b/语法/活用.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA4BD7-99DE-47AB-9E81-5F7A664B4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五段动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不规则动词（变格动词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定形（仮定形）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さ变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>か变动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +103,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +149,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +451,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="77.33203125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="G1:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/语法/活用.xlsx
+++ b/语法/活用.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AA4BD7-99DE-47AB-9E81-5F7A664B4AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73C828-3523-4AEE-BF1B-B54CE146C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>动词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,11 +92,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>さ变动词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>か变动词</t>
+    <t>さ变动词（する）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>か变动词（くる）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞い）＋ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・きます
+（うー＞い）＋（るー＞ます）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つうる（いちり）ー＞って
+むぶぬ（みびに）ー＞んで
+くー＞いて
+ぐー＞いで
+すー＞して
+いくー＞いって（いいて）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（いー＞く）＋て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +185,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +215,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,19 +269,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,127 +591,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="77.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.58203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.58203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="120.08203125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="H4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="H1:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/语法/活用.xlsx
+++ b/语法/活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73C828-3523-4AEE-BF1B-B54CE146C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E94843-4977-4121-8719-E541745E5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>动词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,32 +137,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（いー＞く）＋て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>つうる（いちり）ー＞って
 むぶぬ（みびに）ー＞んで
 くー＞いて
 ぐー＞いで
 すー＞して
-いくー＞いって（いいて）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>で</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（いー＞く）＋て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
+いくー＞いって（い(い)て）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（いー＞かっ）＋た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だった</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,31 +228,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,40 +283,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +605,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,8 +625,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
@@ -623,20 +634,20 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>26</v>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
@@ -648,158 +659,164 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>23</v>
+      <c r="F4" s="12"/>
+      <c r="H4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="E4:F4"/>
@@ -809,6 +826,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A1:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/语法/活用.xlsx
+++ b/语法/活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E94843-4977-4121-8719-E541745E5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E334E6B-57FD-4A0B-A6F1-201CBD351E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>动词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,18 +77,6 @@
   </si>
   <si>
     <t>连体形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ます</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>た</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,12 +161,193 @@
     <t>だった</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>こない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞あ）＋ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ます形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（いー＞く）＋ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゃない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>るー＞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>よう</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞お）＋よう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>るー＞れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（うー＞え）＋れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辞书形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>しろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>せよ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>るー＞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・よ
+くれるー＞くれ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うー＞え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ければ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なら（ば）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +369,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +432,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,19 +474,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -307,20 +498,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,16 +805,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.4140625" style="2" customWidth="1"/>
@@ -624,199 +827,298 @@
     <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>25</v>
+      <c r="J1" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+    <row r="3" spans="1:11" s="3" customFormat="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11" ht="52" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>22</v>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="6" spans="1:11" ht="18">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="47.5" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>23</v>
+      <c r="H7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>29</v>
-      </c>
+    <row r="8" spans="1:11" ht="49" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+    <row r="9" spans="1:11" ht="80.5" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+    <row r="10" spans="1:11" ht="72" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="406" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="E4:F4"/>

--- a/语法/活用.xlsx
+++ b/语法/活用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\JapaneseLearn\语法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E334E6B-57FD-4A0B-A6F1-201CBD351E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5A8EC-1468-42C1-8C20-754F4DAE3128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>动词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,14 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>して</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>きて</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>るー＞て</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,15 +134,6 @@
   </si>
   <si>
     <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>つうる（いちり）ー＞って
-むぶぬ（みびに）ー＞んで
-くー＞いて
-ぐー＞いで
-すー＞して
-いくー＞いって（い(い)て）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,14 +214,6 @@
   </si>
   <si>
     <t>（うー＞お）＋よう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>くれば</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すれば</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,12 +317,75 @@
     <t>なら（ば）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>つうる（いちり）ー＞って
+むぶぬ（みびに）ー＞んで
+く（き）ー＞いて
+ぐ（ぎ）ー＞いで
+す（し）ー＞して
+いくー＞いって（い(い)て）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・きて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（うー＞い）＋（るー＞て）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（すれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・くれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+＋れば</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +413,13 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="12">
@@ -457,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,38 +537,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +862,10 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
@@ -821,57 +875,57 @@
     <col min="6" max="6" width="29.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="21.58203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.58203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="120.08203125" style="4" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>22</v>
+      <c r="J1" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
@@ -879,17 +933,17 @@
         <v>12</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="52" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>31</v>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -897,227 +951,217 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="I5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="25"/>
     </row>
-    <row r="5" spans="1:11" ht="93" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="47.5" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="49" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="80.5" customHeight="1">
+    <row r="9" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="H9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="72" customHeight="1">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
+      <c r="I11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="406" customHeight="1"/>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="406" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="H1:H3"/>
@@ -1129,6 +1173,7 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A1:B3"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
